--- a/MainTop/11.12.2025 Таня Озон/объединенный_отчет_с_местом_updated_sorted_colored.xlsx
+++ b/MainTop/11.12.2025 Таня Озон/объединенный_отчет_с_местом_updated_sorted_colored.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\11.12.2025 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B93F56D-A4A1-4D8A-9FE6-E134E4D96929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FF2EC3-7D31-4DA7-8229-54DF212AC8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>Артикул</t>
   </si>
@@ -173,12 +173,6 @@
   </si>
   <si>
     <t>в2</t>
-  </si>
-  <si>
-    <t>Термонаклейка Кибер-девушка в стиле аниме</t>
-  </si>
-  <si>
-    <t>в65</t>
   </si>
   <si>
     <t>Термонаклейка Чёрный волк красный луна</t>
@@ -655,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +778,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -798,7 +792,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -980,7 +974,7 @@
         <v>47</v>
       </c>
       <c r="B23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>48</v>
@@ -1060,31 +1054,31 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="3">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>6</v>
+      <c r="D29" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="3">
+        <v>13</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B30" s="3">
-        <v>14</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1092,13 +1086,13 @@
         <v>64</v>
       </c>
       <c r="B31" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1106,13 +1100,13 @@
         <v>66</v>
       </c>
       <c r="B32" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1120,13 +1114,13 @@
         <v>68</v>
       </c>
       <c r="B33" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1134,13 +1128,13 @@
         <v>70</v>
       </c>
       <c r="B34" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1148,13 +1142,13 @@
         <v>72</v>
       </c>
       <c r="B35" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1162,13 +1156,13 @@
         <v>74</v>
       </c>
       <c r="B36" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1182,35 +1176,21 @@
         <v>77</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="3">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="4">
+        <v>5</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B39" s="4">
-        <v>5</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
